--- a/excel_python/04/data/salesList.xlsx
+++ b/excel_python/04/data/salesList.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nuri/Dropbox/My Works/Text/번역/Excel x Python으로 빠른 퇴근하는 방법 [2020.03.02]/9593/日経BP/excel_python/04/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitAdd\excel_python\04\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0C0B3C-70E2-8843-A232-8DC4F8206CCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="17980" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="17976" windowHeight="12636"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -115,16 +114,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -150,10 +156,10 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -452,14 +458,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.3984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>1010981</v>
       </c>
@@ -500,7 +523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1010981</v>
       </c>
@@ -538,7 +561,7 @@
         <v>38400</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1010981</v>
       </c>
@@ -579,7 +602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1010982</v>
       </c>
@@ -620,7 +643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1010982</v>
       </c>
@@ -661,7 +684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1020765</v>
       </c>
@@ -699,7 +722,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1020765</v>
       </c>
@@ -737,7 +760,7 @@
         <v>252000</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1020765</v>
       </c>
@@ -778,7 +801,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1020765</v>
       </c>
@@ -816,7 +839,7 @@
         <v>273000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1020765</v>
       </c>
@@ -854,7 +877,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1020766</v>
       </c>
@@ -892,7 +915,7 @@
         <v>225000</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1020766</v>
       </c>
@@ -931,6 +954,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>